--- a/Template/Evaluation_Matrix_Example_24102022.xlsx
+++ b/Template/Evaluation_Matrix_Example_24102022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{7332241D-17A0-40E4-81F9-4063FE63FEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FABBA35-B540-4DEB-BE30-F920FA35F424}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -699,6 +699,61 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -708,72 +763,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1241,595 +1241,588 @@
   <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="20.625" style="8"/>
+    <col min="1" max="1" width="26" style="5" customWidth="1"/>
+    <col min="2" max="4" width="14.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="20.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="27">
         <v>44858</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="97.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="G3" s="28"/>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="97.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="23"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" spans="1:7" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-    </row>
-    <row r="37" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
@@ -1839,6 +1832,13 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A5:G5 A6 B8:G8 B11:G11 B14:G14 B17:G17 B20:G20 B23:G23 B26:G26">
